--- a/CNF/CNF/Assets/Terasurware/Excel/confression_master.xlsx
+++ b/CNF/CNF/Assets/Terasurware/Excel/confression_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Chill_Gamejam\Gamejam2023\CNF\CNF\Assets\Terasurware\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c_tanaka\Gamejam2023\CNF\CNF\Assets\Terasurware\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB5F241-9ED5-4A38-929E-9E456CC8A79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2CE793-4816-4C98-966D-5D17178BAA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15750" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="confression_master" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -188,6 +188,239 @@
   </si>
   <si>
     <t>わいわい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットでのレスバがやめられないんです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学校の宿題が終わらない……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投げ銭のせいで金欠なんです……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リボ払いが終わらない……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妻のプリンを食べてしまって喧嘩中です……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲み会で羽目を外して後輩に嫌われた……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寝坊癖がついてしまって困っています</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シスターさん可愛い！　秘訣はある？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彼女が3人いるのですが、修羅場中です</t>
+    <rPh sb="15" eb="16">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>釣りも対立煽りも
+基本ですよねっ！
+煽られたら荒らしますけど！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それってストレスかかりませんか！？
+良くないですよ！
+私とお話しましょう！？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えっと……
+知らんぷりしちゃいましょう！
+時間が全てをごまかしてくれます！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>い、急いで終わらせましょう！？
+終わったら一緒に
+お祝いしましょう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推しに名前を呼ばれること
+それこそ史上の喜び
+そのためなら三食もやしも上等です！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご、ご飯食べてますか！？
+ご自身が健康でないと
+応援も出来ませんよ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生涯払い続ける覚悟でいきましょう
+私も元本
+全然減ってないんですよね……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひぃい、急いで一括で払いましょう！
+村の皆さんにお金借りるの
+私も手伝いますから！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それは……
+プリンがそこにあるのが悪いですね！
+つまりあなたは悪くありません！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>むっ、食べ物の恨みは怖いですよ……！
+美味しいお菓子買い直して
+奥様に即お詫びしましょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ついてこられない周りが悪いんです！
+あなたはむしろ
+強靭なご自分を誇るべきです！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お酒とは上手に付き合いましょうね……
+健康や周りの人との
+大切な関係を壊しかねないので</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遅刻上等です！
+早すぎる世界が
+悪いんですよ、世界が～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原因を見つけて対策を取りたいですね
+私で良ければ
+モーニングコールしますよ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふふ～ん
+可愛いでしょうそうでしょう
+自由にストレスレスで過ごした結果です</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひゃあ……
+か、可愛いだなんてよしてください
+そのっ、こ、困ります……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わかります～！
+私も同時攻略しちゃって……
+……え？　ゲームの話ですよね？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひ、人の真っ直ぐな思いを弄ぶのは
+絶対に良くないと思いますっ！！
+やめましょう！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほ、本気で言ってますか？</t>
+  </si>
+  <si>
+    <t>ほ、本気で言ってますか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すごく、心がやすらぎました</t>
+  </si>
+  <si>
+    <t>すごく、心がやすらぎました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シスターちゃんも同じなんだ……</t>
+    <rPh sb="8" eb="9">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シスターさんも同じなんですね……</t>
+    <rPh sb="7" eb="8">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そ、そう言われても……</t>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そういうのもありかも……</t>
+  </si>
+  <si>
+    <t>そういうのもありかも……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>う、うぅ……頑張らなきゃ</t>
+    <rPh sb="6" eb="8">
+      <t>ガンバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なるほど、たしかに……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言うのは簡単だけどさ……</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうだよな、ありがとう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たすかる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なるほど～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やれやれ……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シスターさんも可愛いですね</t>
+    <rPh sb="7" eb="9">
+      <t>カワイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -195,7 +428,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,25 +749,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.125" customWidth="1"/>
+    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="28.92578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.640625" customWidth="1"/>
-    <col min="10" max="10" width="28.35546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.25" customWidth="1"/>
+    <col min="8" max="8" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.625" customWidth="1"/>
+    <col min="10" max="10" width="28.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="66" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" ht="112.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -596,6 +831,294 @@
       </c>
       <c r="J2">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="75">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="75">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="75">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="75">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="75">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="93.75">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -608,26 +1131,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36079B4-622B-4924-9DDB-3A667B3C04EC}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.5" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.78515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.7109375" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.375" customWidth="1"/>
+    <col min="7" max="7" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.75" customWidth="1"/>
+    <col min="10" max="10" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -653,7 +1176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -679,7 +1202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -705,7 +1228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -731,7 +1254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11">
       <c r="G5">
         <v>4</v>
       </c>
@@ -745,7 +1268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11">
       <c r="G6">
         <v>5</v>
       </c>
@@ -759,7 +1282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11">
       <c r="G7">
         <v>6</v>
       </c>

--- a/CNF/CNF/Assets/Terasurware/Excel/confression_master.xlsx
+++ b/CNF/CNF/Assets/Terasurware/Excel/confression_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c_tanaka\Gamejam2023\CNF\CNF\Assets\Terasurware\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2CE793-4816-4C98-966D-5D17178BAA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE1340D-E907-4982-BC16-FE60A8FD6811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="125">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -421,6 +421,301 @@
     <rPh sb="7" eb="9">
       <t>カワイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人と話す時つい緊張しちゃって……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>友達には才能があるのに俺には何もない……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋人にフラれた、辛すぎる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しい名産品を作りたいけど反対された</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法使いになりたいのに親に止められた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シスターさんと一緒に働きたいです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最近寝付きがちょっと悪くて……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動物を飼ってみたいんですが……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この村から出たいんです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理づくり、上手になりたい！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神父様と仲は良いんですか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深淵を覗く時、深淵もこちらを覗く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古の印を持つ者よ、汝はいつ目を覚ます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ああ、ずっとお待ちしておりました
+この世で虐げられ
+追いやられた貴方のことを</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ああ……窓の外に見える深い深い宵闇
+浮かぶ瞳は私を見つめていたのですね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ええと……御用はなんでしょうか？
+後が詰まっておりますので
+恐れ入りますがお引取りください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>導きに従え、信なる者を増やせ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貴様の目はその程度か</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニケーション、難しいですよね
+でも、私と今話せてます！　
+これから練習していきましょう！</t>
+    <rPh sb="36" eb="38">
+      <t>レンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今は便利なネット社会なんです
+わざわざ苦しい思いをしなくても
+会話なんてチャットで十分ですよ！</t>
+    <rPh sb="19" eb="20">
+      <t>クル</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私も新米シスターなんです
+周りに全然追いつけなくて……
+誰かと比べずに頑張るようにしてますっ</t>
+    <rPh sb="2" eb="4">
+      <t>シンマイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>友達の気を逸らすような
+とびきりのイタズラをしましょ！
+そうすればあなたが一番です！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なるほど……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それはお辛かったですね……
+あなたが前を向けるような
+お手伝いをさせてください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やっぱり３次元はダメですね！
+２次元ならフラれることもないですよ？
+あなたもこちら側にどうですか！？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村の新しい名物を……？
+それ、すごく素敵だと思います！
+諦めず交渉してみましょう！</t>
+    <rPh sb="0" eb="1">
+      <t>ムラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>メイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別に今のままで
+困ってないじゃないですか
+わざわざコストかけなくても……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素敵な夢だと思います！
+私で良ければ、後日
+親御さんの説得をお手伝いします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シスターさん、ありがとう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この村から出る必要ないですよ～
+それに、魔法使いって
+修羅の道って聞きますし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そ、そうなのかな……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わあっ、嬉しいです！
+神父様が帰ってきたら
+一緒にご相談しましょう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えぇっ、私の大事な怠け場なのに……
+じゃなくて、別に
+人手足りてるので大丈夫です</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そ、そんな……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それは辛いですね……
+寝れないと色々考えちゃいますよね
+あっ、ホットミルクおすすめですよ！</t>
+    <rPh sb="11" eb="12">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっそ夜更かししちゃいませんか？
+徹夜も慣れると癖になります
+私が証人です</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素敵です！　
+しっかりお世話してあげましょ
+犬、猫、蛇、龍……迷いますよね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シスターさん、私頑張ります！</t>
+    <rPh sb="7" eb="8">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガンバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世話大変だって聞きますし
+辞めたほうがいいんじゃ……
+特に魔法生物あたりが食費すごいとか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えっ、えぇ……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>……悩んで決めたことなんですよね？
+私に止める権利はありません
+あなたの人生ですから</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村の外？　大変じゃないですか？
+ずっとここで
+ぐうたらする方がいいですよ～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そ、そうかな……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勇気が出ました</t>
+    <rPh sb="0" eb="2">
+      <t>ユウキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わあっ、素敵です！　
+誰かに教わるのもいいかも？
+確か村長さんがお上手でしたよ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>き、危険を冒してわざわざ作らなくても
+ご存じです……？　
+鍋って爆発するんですよ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身寄りのない
+私の面倒を見てくれた方です
+厳しいですけど、感謝しています</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それって懺悔じゃなくて質問ですよ～
+別に普通で面白い話もないですけど
+そういうのはナシで！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>す、すみません……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>へ～、そうなんですね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がんばります！</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -749,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1121,6 +1416,422 @@
         <v>2</v>
       </c>
     </row>
+    <row r="12" spans="1:10" ht="93.75">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="75">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="93.75">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="75">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="75">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="75">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="93.75">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="75">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="75">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="75">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="93.75">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="93.75">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="93.75">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1132,7 +1843,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/CNF/CNF/Assets/Terasurware/Excel/confression_master.xlsx
+++ b/CNF/CNF/Assets/Terasurware/Excel/confression_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c_tanaka\Gamejam2023\CNF\CNF\Assets\Terasurware\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE1340D-E907-4982-BC16-FE60A8FD6811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDD8F1D-0F10-41BF-BBBF-DB20544335A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="129">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -716,6 +716,29 @@
   </si>
   <si>
     <t>がんばります！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掃除するのが苦手なんです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私も苦手です！
+でも住めば都と言いますし
+案外汚部屋も悪くはないですよ～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こまめに掃除する習慣を
+少しずつでもいいので付けましょう！
+私も苦手な方ですが一緒に頑張ります！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シスターさん……私、頑張ります！</t>
+    <rPh sb="8" eb="9">
+      <t>ワタシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1044,15 +1067,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.125" customWidth="1"/>
     <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
@@ -1830,6 +1853,38 @@
       </c>
       <c r="J24">
         <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="93.75">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>128</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CNF/CNF/Assets/Terasurware/Excel/confression_master.xlsx
+++ b/CNF/CNF/Assets/Terasurware/Excel/confression_master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c_tanaka\Gamejam2023\CNF\CNF\Assets\Terasurware\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Chill_Gamejam\Gamejam2023\CNF\CNF\Assets\Terasurware\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDD8F1D-0F10-41BF-BBBF-DB20544335A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F5CA90-356D-4E2B-B7D9-EDAAE0CB158B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="confression_master" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="142">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -741,12 +741,70 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>sister_empathize_expression</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シスター同調表情</t>
+    <rPh sb="4" eb="6">
+      <t>ドウチョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sister_admonish_expression</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Angry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dark</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Doya</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gurume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Idle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oops</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Panic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Smile_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Smile_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1067,27 +1125,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="22" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.125" customWidth="1"/>
-    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5" customWidth="1"/>
-    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.25" customWidth="1"/>
-    <col min="8" max="8" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.625" customWidth="1"/>
-    <col min="10" max="10" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.2109375" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.640625" customWidth="1"/>
+    <col min="12" max="12" width="28.35546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1098,28 +1156,34 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="112.5">
+    <row r="2" spans="1:12" ht="66" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1129,29 +1193,35 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="75">
+    <row r="3" spans="1:12" ht="66" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1161,29 +1231,35 @@
       <c r="C3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>58</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="75">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="66" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1193,29 +1269,35 @@
       <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="75">
+    <row r="5" spans="1:12" ht="66" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1225,29 +1307,35 @@
       <c r="C5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
         <v>62</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>63</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="75">
+    <row r="6" spans="1:12" ht="66" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1257,29 +1345,35 @@
       <c r="C6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>5</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="75">
+    <row r="7" spans="1:12" ht="88" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1289,29 +1383,35 @@
       <c r="C7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
         <v>57</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>4</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>67</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="75">
+    <row r="8" spans="1:12" ht="88" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1321,29 +1421,35 @@
       <c r="C8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>6</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>68</v>
       </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="75">
+      <c r="L8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="66" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1353,29 +1459,35 @@
       <c r="C9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
         <v>64</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>5</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>59</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="75">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="66" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1385,29 +1497,35 @@
       <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
         <v>70</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="93.75">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="66" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1417,29 +1535,35 @@
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
         <v>72</v>
       </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="93.75">
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="66" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1449,29 +1573,35 @@
       <c r="C12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
         <v>60</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
         <v>58</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="75">
+    <row r="13" spans="1:12" ht="66" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1481,29 +1611,35 @@
       <c r="C13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="93.75">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="88" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1513,29 +1649,35 @@
       <c r="C14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
         <v>60</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="75">
+    <row r="15" spans="1:12" ht="66" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1545,29 +1687,35 @@
       <c r="C15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>6</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>4</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="75">
+    <row r="16" spans="1:12" ht="66" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1577,29 +1725,35 @@
       <c r="C16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
         <v>102</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>6</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>104</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="75">
+    <row r="17" spans="1:12" ht="66" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1609,29 +1763,35 @@
       <c r="C17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
         <v>102</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>6</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>107</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="93.75">
+    <row r="18" spans="1:12" ht="66" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1641,29 +1801,35 @@
       <c r="C18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="J18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="75">
+      <c r="K18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="66" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1673,29 +1839,35 @@
       <c r="C19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
         <v>111</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>6</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>113</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="75">
+    <row r="20" spans="1:12" ht="66" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1705,29 +1877,35 @@
       <c r="C20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>6</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>116</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="75">
+    <row r="21" spans="1:12" ht="88" x14ac:dyDescent="0.75">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1737,29 +1915,35 @@
       <c r="C21" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>6</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>4</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="93.75">
+    <row r="22" spans="1:12" ht="66" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1769,29 +1953,35 @@
       <c r="C22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>5</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>122</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="93.75">
+    <row r="23" spans="1:12" ht="66" x14ac:dyDescent="0.75">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1801,29 +1991,35 @@
       <c r="C23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>3</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
         <v>91</v>
       </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="93.75">
+      <c r="L23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="66" x14ac:dyDescent="0.75">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1833,29 +2029,35 @@
       <c r="C24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>3</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
         <v>91</v>
       </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="93.75">
+      <c r="L24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="88" x14ac:dyDescent="0.75">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1865,25 +2067,31 @@
       <c r="C25" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>5</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>128</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>1</v>
       </c>
     </row>
@@ -1895,59 +2103,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36079B4-622B-4924-9DDB-3A667B3C04EC}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="22" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.78515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.5" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.375" customWidth="1"/>
-    <col min="7" max="7" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.75" customWidth="1"/>
-    <col min="10" max="10" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.5" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.78515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.5" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.35546875" customWidth="1"/>
+    <col min="13" max="13" width="28.2109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.7109375" customWidth="1"/>
+    <col min="16" max="16" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="1.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1959,21 +2186,33 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1985,21 +2224,33 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2011,55 +2262,159 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>27</v>
       </c>
-      <c r="J5">
+      <c r="P5">
         <v>4</v>
       </c>
-      <c r="K5" t="s">
+      <c r="Q5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
+        <v>136</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="J6">
+      <c r="P6">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
+      <c r="Q6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7" t="s">
         <v>29</v>
       </c>
-      <c r="J7">
+      <c r="P7">
         <v>6</v>
       </c>
-      <c r="K7" t="s">
+      <c r="Q7" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/CNF/CNF/Assets/Terasurware/Excel/confression_master.xlsx
+++ b/CNF/CNF/Assets/Terasurware/Excel/confression_master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Chill_Gamejam\Gamejam2023\CNF\CNF\Assets\Terasurware\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c_tanaka\Gamejam2023\CNF\CNF\Assets\Terasurware\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F5CA90-356D-4E2B-B7D9-EDAAE0CB158B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FF54EB-A5ED-4A74-9002-DC05ED95648C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="confression_master" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="146">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -799,12 +799,35 @@
     <t>Smile_02</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>おお、同志よ！
+一緒にぐうたらしませんか～？
+働かなくても皆が助けてくれますよ～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お仕事、大変なこと多いですけど
+やりがいを見つけられると楽しいですよ
+少しずつ、出来ること探してみませんか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、働きたくないんです……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処世術ですね！</t>
+    <rPh sb="0" eb="3">
+      <t>ショセイジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1125,27 +1148,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.125" customWidth="1"/>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.5" customWidth="1"/>
     <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.2109375" customWidth="1"/>
-    <col min="10" max="10" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.640625" customWidth="1"/>
-    <col min="12" max="12" width="28.35546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.25" customWidth="1"/>
+    <col min="10" max="10" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.625" customWidth="1"/>
+    <col min="12" max="12" width="28.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +1208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="66" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" ht="112.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1194,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1203,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1221,7 +1246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="66" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:12" ht="75">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1241,7 +1266,7 @@
         <v>40</v>
       </c>
       <c r="G3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1259,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="66" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:12" ht="75">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1270,7 +1295,7 @@
         <v>41</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1279,7 +1304,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1297,7 +1322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="66" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" ht="75">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1308,7 +1333,7 @@
         <v>43</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1317,7 +1342,7 @@
         <v>44</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1335,7 +1360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="66" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" ht="75">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1346,7 +1371,7 @@
         <v>45</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1355,7 +1380,7 @@
         <v>46</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1373,7 +1398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="88" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" ht="75">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1384,7 +1409,7 @@
         <v>47</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1393,7 +1418,7 @@
         <v>48</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1411,7 +1436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="88" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" ht="75">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1422,7 +1447,7 @@
         <v>49</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1431,7 +1456,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1449,7 +1474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="66" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:12" ht="75">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1460,7 +1485,7 @@
         <v>51</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1469,7 +1494,7 @@
         <v>52</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1487,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="66" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:12" ht="75">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1498,7 +1523,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1507,7 +1532,7 @@
         <v>54</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1525,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="66" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:12" ht="93.75">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1536,7 +1561,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1545,7 +1570,7 @@
         <v>56</v>
       </c>
       <c r="G11" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1563,7 +1588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="66" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:12" ht="93.75">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1574,7 +1599,7 @@
         <v>92</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1583,7 +1608,7 @@
         <v>93</v>
       </c>
       <c r="G12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1601,7 +1626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="66" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:12" ht="75">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1612,7 +1637,7 @@
         <v>94</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1639,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="88" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:12" ht="93.75">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1650,7 +1675,7 @@
         <v>97</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1659,7 +1684,7 @@
         <v>98</v>
       </c>
       <c r="G14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1677,7 +1702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="66" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:12" ht="75">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1688,7 +1713,7 @@
         <v>99</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1697,7 +1722,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1715,7 +1740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="66" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:12" ht="75">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1726,7 +1751,7 @@
         <v>101</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1735,7 +1760,7 @@
         <v>103</v>
       </c>
       <c r="G16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1753,7 +1778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="66" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:12" ht="75">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1764,7 +1789,7 @@
         <v>105</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1773,7 +1798,7 @@
         <v>106</v>
       </c>
       <c r="G17" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1791,7 +1816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="66" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:12" ht="93.75">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1802,7 +1827,7 @@
         <v>108</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1811,7 +1836,7 @@
         <v>109</v>
       </c>
       <c r="G18" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -1829,7 +1854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="66" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:12" ht="75">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1840,7 +1865,7 @@
         <v>110</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1849,7 +1874,7 @@
         <v>112</v>
       </c>
       <c r="G19" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -1867,7 +1892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="66" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:12" ht="75">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1878,7 +1903,7 @@
         <v>114</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1887,7 +1912,7 @@
         <v>115</v>
       </c>
       <c r="G20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1905,7 +1930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="88" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:12" ht="75">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1916,7 +1941,7 @@
         <v>118</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1925,7 +1950,7 @@
         <v>119</v>
       </c>
       <c r="G21" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -1943,7 +1968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="66" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:12" ht="93.75">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1954,7 +1979,7 @@
         <v>120</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1963,7 +1988,7 @@
         <v>121</v>
       </c>
       <c r="G22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -1981,7 +2006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="66" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:12" ht="93.75">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1992,7 +2017,7 @@
         <v>88</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -2001,7 +2026,7 @@
         <v>89</v>
       </c>
       <c r="G23" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2019,7 +2044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="66" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:12" ht="93.75">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2030,7 +2055,7 @@
         <v>87</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -2039,7 +2064,7 @@
         <v>89</v>
       </c>
       <c r="G24" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2057,7 +2082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="88" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:12" ht="93.75">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2068,7 +2093,7 @@
         <v>126</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -2077,7 +2102,7 @@
         <v>127</v>
       </c>
       <c r="G25" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2092,6 +2117,44 @@
         <v>128</v>
       </c>
       <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="112.5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="1">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26" t="s">
+        <v>128</v>
+      </c>
+      <c r="L26">
         <v>1</v>
       </c>
     </row>
@@ -2106,32 +2169,32 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.78515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.5" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.5" customWidth="1"/>
     <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.78515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="1.5" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.35546875" customWidth="1"/>
-    <col min="13" max="13" width="28.2109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.7109375" customWidth="1"/>
-    <col min="16" max="16" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.375" customWidth="1"/>
+    <col min="13" max="13" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.75" customWidth="1"/>
+    <col min="16" max="16" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="1.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -2169,7 +2232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2207,7 +2270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2245,7 +2308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2283,7 +2346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2309,7 +2372,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2335,7 +2398,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2361,7 +2424,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2375,7 +2438,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2389,7 +2452,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2403,7 +2466,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2420,5 +2483,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CNF/CNF/Assets/Terasurware/Excel/confression_master.xlsx
+++ b/CNF/CNF/Assets/Terasurware/Excel/confression_master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c_tanaka\Gamejam2023\CNF\CNF\Assets\Terasurware\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FF54EB-A5ED-4A74-9002-DC05ED95648C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668C3F0C-5045-4721-954E-936715E110BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="149">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -820,6 +820,22 @@
     <rPh sb="0" eb="3">
       <t>ショセイジュツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きっと何でもお似合いですよ
+服に毎朝悩むのって楽しそうですね！
+日替わりで決めておくのも良いかもです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>迷うくらいなら毎日同じにしましょうよ
+結局ジャージが一番動きやすいし
+洗いやすくて良いと思います～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんな服を着ようか迷っちゃって……</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1148,9 +1164,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -2156,6 +2172,44 @@
       </c>
       <c r="L26">
         <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="93.75">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>113</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/CNF/CNF/Assets/Terasurware/Excel/confression_master.xlsx
+++ b/CNF/CNF/Assets/Terasurware/Excel/confression_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c_tanaka\Gamejam2023\CNF\CNF\Assets\Terasurware\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668C3F0C-5045-4721-954E-936715E110BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A36A92-7D00-46AC-A8EA-93B50C6F6E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="147">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -468,10 +468,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>深淵を覗く時、深淵もこちらを覗く</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>古の印を持つ者よ、汝はいつ目を覚ます</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -479,11 +475,6 @@
     <t>ああ、ずっとお待ちしておりました
 この世で虐げられ
 追いやられた貴方のことを</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ああ……窓の外に見える深い深い宵闇
-浮かぶ瞳は私を見つめていたのですね</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1164,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1197,7 +1188,7 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -1206,7 +1197,7 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -1612,7 +1603,7 @@
         <v>74</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="1">
         <v>9</v>
@@ -1621,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -1650,7 +1641,7 @@
         <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1">
         <v>10</v>
@@ -1659,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
@@ -1668,7 +1659,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1688,7 +1679,7 @@
         <v>76</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
@@ -1697,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1726,7 +1717,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D15" s="1">
         <v>10</v>
@@ -1735,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G15" s="1">
         <v>3</v>
@@ -1764,7 +1755,7 @@
         <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16" s="1">
         <v>10</v>
@@ -1773,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G16" s="1">
         <v>3</v>
@@ -1782,13 +1773,13 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J16">
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L16">
         <v>3</v>
@@ -1802,7 +1793,7 @@
         <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D17" s="1">
         <v>10</v>
@@ -1811,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G17" s="1">
         <v>8</v>
@@ -1820,13 +1811,13 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J17">
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L17">
         <v>4</v>
@@ -1840,7 +1831,7 @@
         <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D18" s="1">
         <v>5</v>
@@ -1849,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G18" s="1">
         <v>8</v>
@@ -1858,7 +1849,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1878,7 +1869,7 @@
         <v>81</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D19" s="1">
         <v>9</v>
@@ -1887,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G19" s="1">
         <v>8</v>
@@ -1896,13 +1887,13 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J19">
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L19">
         <v>4</v>
@@ -1916,7 +1907,7 @@
         <v>82</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D20" s="1">
         <v>5</v>
@@ -1925,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G20" s="1">
         <v>3</v>
@@ -1934,13 +1925,13 @@
         <v>2</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J20">
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L20">
         <v>3</v>
@@ -1954,7 +1945,7 @@
         <v>83</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D21" s="1">
         <v>10</v>
@@ -1963,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G21" s="1">
         <v>8</v>
@@ -1972,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J21">
         <v>6</v>
@@ -1992,7 +1983,7 @@
         <v>84</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D22" s="1">
         <v>9</v>
@@ -2001,22 +1992,22 @@
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="J22">
         <v>5</v>
       </c>
       <c r="K22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L22">
         <v>4</v>
@@ -2030,7 +2021,7 @@
         <v>85</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -2039,7 +2030,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G23" s="1">
         <v>5</v>
@@ -2048,13 +2039,13 @@
         <v>1</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L23">
         <v>2</v>
@@ -2065,48 +2056,48 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="D24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="G24" s="1">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24">
         <v>5</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
       <c r="K24" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="L24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="93.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="112.5">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
@@ -2115,100 +2106,62 @@
         <v>2</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G25" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="J25">
         <v>5</v>
       </c>
       <c r="K25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="112.5">
+    <row r="26" spans="1:12" ht="93.75">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="1">
         <v>3</v>
       </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" s="1">
-        <v>9</v>
-      </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="J26">
         <v>5</v>
       </c>
       <c r="K26" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="93.75">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27">
-        <v>9</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G27" s="1">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
-      <c r="K27" t="s">
-        <v>113</v>
-      </c>
-      <c r="L27">
         <v>4</v>
       </c>
     </row>
@@ -2250,10 +2203,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -2262,10 +2215,10 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -2291,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2303,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -2329,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2341,7 +2294,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -2367,7 +2320,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2379,7 +2332,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -2405,13 +2358,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M5">
         <v>4</v>
@@ -2431,13 +2384,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -2457,13 +2410,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M7">
         <v>6</v>
@@ -2483,13 +2436,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2497,13 +2450,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2511,13 +2464,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2525,13 +2478,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
